--- a/sorensenLab/relatedToYbx1/design20210331_aidDegronYbx1/nterminal/primersOligosDesignWorkbookYbx1.xlsx
+++ b/sorensenLab/relatedToYbx1/design20210331_aidDegronYbx1/nterminal/primersOligosDesignWorkbookYbx1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chughes\Documents\bccrc\projectsWorkspace\sorensenLab\relatedToYbx1\design20210331_aidDegronYbx1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chughes\Documents\bccrc\projectsWorkspace\sorensenLab\relatedToYbx1\design20210331_aidDegronYbx1\nterminal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="93">
   <si>
     <t>name</t>
   </si>
@@ -519,6 +519,42 @@
   </si>
   <si>
     <t>ATGGCTCATTCACTCCGCTT</t>
+  </si>
+  <si>
+    <t>yb1GdnaFwd7</t>
+  </si>
+  <si>
+    <t>ACTCTATGCCCGCCGTAATG</t>
+  </si>
+  <si>
+    <t>yb1GdnaRev7</t>
+  </si>
+  <si>
+    <t>TCCTTTTCCAAATCCGCCCG</t>
+  </si>
+  <si>
+    <t>yb1GdnaFwd8</t>
+  </si>
+  <si>
+    <t>yb1GdnaRev8</t>
+  </si>
+  <si>
+    <t>yb1GdnaFwd9</t>
+  </si>
+  <si>
+    <t>yb1GdnaRev9</t>
+  </si>
+  <si>
+    <t>AAGGTGACTGCTCCGACAAA</t>
+  </si>
+  <si>
+    <t>CACGTGGGTGAGTCTGAAGC</t>
+  </si>
+  <si>
+    <t>GGTACGCTCTTCAAACGCAT</t>
+  </si>
+  <si>
+    <t>GCTATCCTTTTCCAAATCCGCC</t>
   </si>
 </sst>
 </file>
@@ -570,7 +606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -580,6 +616,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -860,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,9 +1104,6 @@
       <c r="C11" s="3">
         <v>58</v>
       </c>
-      <c r="D11" s="3">
-        <v>66</v>
-      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1371,6 +1405,90 @@
         <v>80</v>
       </c>
       <c r="C35" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="3">
+        <v>60</v>
+      </c>
+      <c r="D36" s="3">
+        <v>68</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="3">
+        <v>60</v>
+      </c>
+      <c r="D38" s="3">
+        <v>68</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="3">
+        <v>60</v>
+      </c>
+      <c r="D40" s="3">
+        <v>66</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="3">
         <v>60</v>
       </c>
     </row>

--- a/sorensenLab/relatedToYbx1/design20210331_aidDegronYbx1/nterminal/primersOligosDesignWorkbookYbx1.xlsx
+++ b/sorensenLab/relatedToYbx1/design20210331_aidDegronYbx1/nterminal/primersOligosDesignWorkbookYbx1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="108">
   <si>
     <t>name</t>
   </si>
@@ -555,6 +555,111 @@
   </si>
   <si>
     <t>GCTATCCTTTTCCAAATCCGCC</t>
+  </si>
+  <si>
+    <t>flagYbx1Fwd2</t>
+  </si>
+  <si>
+    <t>puc19Ybx1Rev2</t>
+  </si>
+  <si>
+    <t>flagYbx1Fwd3</t>
+  </si>
+  <si>
+    <t>puc19Ybx1Rev3</t>
+  </si>
+  <si>
+    <t>ATGAGCAGCGAGGCCGA</t>
+  </si>
+  <si>
+    <t>CGTGAGGGAAGGGGAAGC</t>
+  </si>
+  <si>
+    <t>ATGAGCAGCGAGGCCGAG</t>
+  </si>
+  <si>
+    <t>CGTGAGGGAAGGGGAAGCC</t>
+  </si>
+  <si>
+    <t>yb1HarFwd1</t>
+  </si>
+  <si>
+    <t>yb1HarRev1</t>
+  </si>
+  <si>
+    <t>yb1HarFwd2</t>
+  </si>
+  <si>
+    <t>yb1HarRev2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ATAAGGATGATGACGACAAG</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ATGAGCAGCGAGGCCGA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AAAACGACGGCCAGTGAATT</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CGTGAGGGAAGGGGAAGC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AAAACGACGGCCAGTGAATT</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GGGGGTGACGCGAACAA</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -897,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1492,6 +1597,118 @@
         <v>60</v>
       </c>
     </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="3">
+        <v>61</v>
+      </c>
+      <c r="D42" s="3">
+        <v>70</v>
+      </c>
+      <c r="E42" s="3">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="3">
+        <v>62</v>
+      </c>
+      <c r="D44" s="3">
+        <v>72</v>
+      </c>
+      <c r="E44" s="3">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="3">
+        <v>61</v>
+      </c>
+      <c r="D46" s="3">
+        <v>70</v>
+      </c>
+      <c r="E46" s="3">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="3">
+        <v>61</v>
+      </c>
+      <c r="D48" s="3">
+        <v>70</v>
+      </c>
+      <c r="E48" s="3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="3">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/sorensenLab/relatedToYbx1/design20210331_aidDegronYbx1/nterminal/primersOligosDesignWorkbookYbx1.xlsx
+++ b/sorensenLab/relatedToYbx1/design20210331_aidDegronYbx1/nterminal/primersOligosDesignWorkbookYbx1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="121">
   <si>
     <t>name</t>
   </si>
@@ -659,6 +659,105 @@
         <scheme val="minor"/>
       </rPr>
       <t>GGGGGTGACGCGAACAA</t>
+    </r>
+  </si>
+  <si>
+    <t>ybx1NdegFwd1</t>
+  </si>
+  <si>
+    <t>ybx1NdegFwd2</t>
+  </si>
+  <si>
+    <t>CACACGTGGGTGAGTCTGAA</t>
+  </si>
+  <si>
+    <t>ybx1NdegRev1</t>
+  </si>
+  <si>
+    <t>ybx1NdegRev2</t>
+  </si>
+  <si>
+    <t>AGACACAACCCTGAACGTGG</t>
+  </si>
+  <si>
+    <t>ybx1NoAidFwd1</t>
+  </si>
+  <si>
+    <t>ybx1NoAidRev1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CCTGCAGGTCGACTCTAGAG</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CTCGGGTACTCTATGGTTTTCGT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TCCTTGTAGTCACCAGCGCC</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AGATCTAGGTCCAGGGTTCTCC</t>
+    </r>
+  </si>
+  <si>
+    <t>ybx1NoAidFwd2</t>
+  </si>
+  <si>
+    <t>ybx1NoAidRev2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AGAACCCTGGACCTAGATCT</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GGCGCTGGTGACTACAAGG</t>
     </r>
   </si>
 </sst>
@@ -1002,10 +1101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1698,7 +1797,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>96</v>
       </c>
@@ -1706,6 +1805,106 @@
         <v>107</v>
       </c>
       <c r="C49" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B52" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" s="3">
+        <v>60</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="3">
+        <v>60</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="3">
+        <v>60</v>
+      </c>
+      <c r="E56" s="3">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="3">
+        <v>60</v>
+      </c>
+      <c r="E58" s="3">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" s="3">
         <v>60</v>
       </c>
     </row>

--- a/sorensenLab/relatedToYbx1/design20210331_aidDegronYbx1/nterminal/primersOligosDesignWorkbookYbx1.xlsx
+++ b/sorensenLab/relatedToYbx1/design20210331_aidDegronYbx1/nterminal/primersOligosDesignWorkbookYbx1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="132">
   <si>
     <t>name</t>
   </si>
@@ -759,6 +759,39 @@
       </rPr>
       <t>GGCGCTGGTGACTACAAGG</t>
     </r>
+  </si>
+  <si>
+    <t>yb1GdnaFwd10</t>
+  </si>
+  <si>
+    <t>yb1GdnaRev11</t>
+  </si>
+  <si>
+    <t>yb1GdnaRev10</t>
+  </si>
+  <si>
+    <t>yb1GdnaFwd11</t>
+  </si>
+  <si>
+    <t>yb1GdnaFwd12</t>
+  </si>
+  <si>
+    <t>CCCCAGCCGATAGTAGACGCTT</t>
+  </si>
+  <si>
+    <t>AATGGCTCATTCACTCCGCTTGCC</t>
+  </si>
+  <si>
+    <t>CATCCCCAGCCGATAGTAGACGCTT</t>
+  </si>
+  <si>
+    <t>GGGTACGCTCTTCAAACGCATACGT</t>
+  </si>
+  <si>
+    <t>GCTATCCTTTTCCAAATCCGCCCGG</t>
+  </si>
+  <si>
+    <t>yb1GdnaRev12</t>
   </si>
 </sst>
 </file>
@@ -1101,10 +1134,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1908,6 +1941,103 @@
         <v>60</v>
       </c>
     </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61" t="s">
+        <v>91</v>
+      </c>
+      <c r="C61" s="3">
+        <v>61</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62" t="s">
+        <v>92</v>
+      </c>
+      <c r="C62" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" s="3">
+        <v>67</v>
+      </c>
+      <c r="E63" s="3">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B65" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="3">
+        <v>66</v>
+      </c>
+      <c r="E65" s="3">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B67" t="s">
+        <v>128</v>
+      </c>
+      <c r="C67" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" t="s">
+        <v>127</v>
+      </c>
+      <c r="C68" s="3">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/sorensenLab/relatedToYbx1/design20210331_aidDegronYbx1/nterminal/primersOligosDesignWorkbookYbx1.xlsx
+++ b/sorensenLab/relatedToYbx1/design20210331_aidDegronYbx1/nterminal/primersOligosDesignWorkbookYbx1.xlsx
@@ -1136,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:B68"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2026,6 +2026,9 @@
       <c r="C67" s="3">
         <v>68</v>
       </c>
+      <c r="E67" s="3">
+        <v>2300</v>
+      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">

--- a/sorensenLab/relatedToYbx1/design20210331_aidDegronYbx1/nterminal/primersOligosDesignWorkbookYbx1.xlsx
+++ b/sorensenLab/relatedToYbx1/design20210331_aidDegronYbx1/nterminal/primersOligosDesignWorkbookYbx1.xlsx
@@ -1136,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1951,6 +1951,9 @@
       <c r="C61" s="3">
         <v>61</v>
       </c>
+      <c r="D61" s="3">
+        <v>66</v>
+      </c>
       <c r="E61" s="3">
         <v>1525</v>
       </c>
@@ -1976,6 +1979,9 @@
       <c r="C63" s="3">
         <v>67</v>
       </c>
+      <c r="D63" s="3">
+        <v>72</v>
+      </c>
       <c r="E63" s="3">
         <v>1525</v>
       </c>
@@ -2001,6 +2007,9 @@
       <c r="C65" s="3">
         <v>66</v>
       </c>
+      <c r="D65" s="3">
+        <v>72</v>
+      </c>
       <c r="E65" s="3">
         <v>2300</v>
       </c>
@@ -2026,6 +2035,9 @@
       <c r="C67" s="3">
         <v>68</v>
       </c>
+      <c r="D67" s="3">
+        <v>72</v>
+      </c>
       <c r="E67" s="3">
         <v>2300</v>
       </c>
@@ -2043,6 +2055,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="49" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>